--- a/Assets/StaticData/Excel/Skill.xlsx
+++ b/Assets/StaticData/Excel/Skill.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwaya\Project_G\Assets\StaticData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58b61c0d2cb9d904/Programming/ProjectG/Project_G/Assets/StaticData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673FC059-A988-45AA-B98B-FA90D34F6B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
